--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H2">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I2">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J2">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N2">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q2">
-        <v>0.3695468285942222</v>
+        <v>1.468887178431111</v>
       </c>
       <c r="R2">
-        <v>3.325921457348</v>
+        <v>13.21998460588</v>
       </c>
       <c r="S2">
-        <v>0.0001248245143135781</v>
+        <v>0.001062976209424131</v>
       </c>
       <c r="T2">
-        <v>0.0001248245143135781</v>
+        <v>0.001062976209424131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H3">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I3">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J3">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P3">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q3">
-        <v>4.428564843377889</v>
+        <v>3.461287677491111</v>
       </c>
       <c r="R3">
-        <v>39.857083590401</v>
+        <v>31.15158909742</v>
       </c>
       <c r="S3">
-        <v>0.001495868487854951</v>
+        <v>0.002504798536723361</v>
       </c>
       <c r="T3">
-        <v>0.001495868487854951</v>
+        <v>0.002504798536723361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H4">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I4">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J4">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N4">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q4">
-        <v>0.00854260869311111</v>
+        <v>0.008415164713333333</v>
       </c>
       <c r="R4">
-        <v>0.076883478238</v>
+        <v>0.07573648241999999</v>
       </c>
       <c r="S4">
-        <v>2.885498937022176E-06</v>
+        <v>6.089725623592731E-06</v>
       </c>
       <c r="T4">
-        <v>2.885498937022176E-06</v>
+        <v>6.089725623592731E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H5">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I5">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J5">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N5">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O5">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P5">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q5">
-        <v>3.903098163332666</v>
+        <v>3.044427477513333</v>
       </c>
       <c r="R5">
-        <v>35.127883469994</v>
+        <v>27.39984729762</v>
       </c>
       <c r="S5">
-        <v>0.001318377793714439</v>
+        <v>0.002203133111537035</v>
       </c>
       <c r="T5">
-        <v>0.001318377793714439</v>
+        <v>0.002203133111537035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H6">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I6">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J6">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N6">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q6">
-        <v>0.01644646207555556</v>
+        <v>0.01292860931111111</v>
       </c>
       <c r="R6">
-        <v>0.14801815868</v>
+        <v>0.1163574838</v>
       </c>
       <c r="S6">
-        <v>5.555240856936422E-06</v>
+        <v>9.355928978377237E-06</v>
       </c>
       <c r="T6">
-        <v>5.555240856936422E-06</v>
+        <v>9.355928978377237E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H7">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I7">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J7">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N7">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q7">
-        <v>0.011178638835</v>
+        <v>0.003708638613333333</v>
       </c>
       <c r="R7">
-        <v>0.100607749515</v>
+        <v>0.03337774752</v>
       </c>
       <c r="S7">
-        <v>3.775889969273555E-06</v>
+        <v>2.683796736203803E-06</v>
       </c>
       <c r="T7">
-        <v>3.775889969273555E-06</v>
+        <v>2.683796736203804E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H8">
         <v>20.379326</v>
       </c>
       <c r="I8">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J8">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N8">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q8">
-        <v>29.8215930695369</v>
+        <v>151.6614179069196</v>
       </c>
       <c r="R8">
-        <v>268.394337625832</v>
+        <v>1364.952761162276</v>
       </c>
       <c r="S8">
-        <v>0.01007305592398827</v>
+        <v>0.1097514373396424</v>
       </c>
       <c r="T8">
-        <v>0.01007305592398827</v>
+        <v>0.1097514373396425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H9">
         <v>20.379326</v>
       </c>
       <c r="I9">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J9">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P9">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q9">
-        <v>357.3751644511816</v>
+        <v>357.3751644511815</v>
       </c>
       <c r="R9">
         <v>3216.376480060634</v>
       </c>
       <c r="S9">
-        <v>0.1207132029790373</v>
+        <v>0.2586184311693603</v>
       </c>
       <c r="T9">
-        <v>0.1207132029790373</v>
+        <v>0.2586184311693603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H10">
         <v>20.379326</v>
       </c>
       <c r="I10">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J10">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N10">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q10">
-        <v>0.6893691962324445</v>
+        <v>0.8688589777926665</v>
       </c>
       <c r="R10">
-        <v>6.204322766092001</v>
+        <v>7.819730800133999</v>
       </c>
       <c r="S10">
-        <v>0.0002328532365703056</v>
+        <v>0.0006287592650407819</v>
       </c>
       <c r="T10">
-        <v>0.0002328532365703055</v>
+        <v>0.0006287592650407821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H11">
         <v>20.379326</v>
       </c>
       <c r="I11">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J11">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N11">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O11">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P11">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q11">
-        <v>314.9711920953106</v>
+        <v>314.3346846063526</v>
       </c>
       <c r="R11">
-        <v>2834.740728857796</v>
+        <v>2829.012161457174</v>
       </c>
       <c r="S11">
-        <v>0.1063901054857559</v>
+        <v>0.2274717190262823</v>
       </c>
       <c r="T11">
-        <v>0.1063901054857559</v>
+        <v>0.2274717190262823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H12">
         <v>20.379326</v>
       </c>
       <c r="I12">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J12">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N12">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q12">
-        <v>1.327192283902223</v>
+        <v>1.334868496695556</v>
       </c>
       <c r="R12">
-        <v>11.94473055512</v>
+        <v>12.01381647026</v>
       </c>
       <c r="S12">
-        <v>0.0004482953699508857</v>
+        <v>0.0009659921303232173</v>
       </c>
       <c r="T12">
-        <v>0.0004482953699508856</v>
+        <v>0.0009659921303232174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H13">
         <v>20.379326</v>
       </c>
       <c r="I13">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J13">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N13">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q13">
-        <v>0.9020908653900002</v>
+        <v>0.3829139493226666</v>
       </c>
       <c r="R13">
-        <v>8.11881778851</v>
+        <v>3.446225543904</v>
       </c>
       <c r="S13">
-        <v>0.0003047057786082774</v>
+        <v>0.0002770998510732258</v>
       </c>
       <c r="T13">
-        <v>0.0003047057786082774</v>
+        <v>0.0002770998510732258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H14">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I14">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J14">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N14">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q14">
-        <v>16.88401378983556</v>
+        <v>6.171588494644444</v>
       </c>
       <c r="R14">
-        <v>151.95612410852</v>
+        <v>55.5442964518</v>
       </c>
       <c r="S14">
-        <v>0.005703035875039651</v>
+        <v>0.004466137250356831</v>
       </c>
       <c r="T14">
-        <v>0.005703035875039651</v>
+        <v>0.004466137250356832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H15">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I15">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J15">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P15">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q15">
-        <v>202.3341674158322</v>
+        <v>14.54273923874444</v>
       </c>
       <c r="R15">
-        <v>1821.00750674249</v>
+        <v>130.8846531487</v>
       </c>
       <c r="S15">
-        <v>0.06834388018644283</v>
+        <v>0.01052401168560484</v>
       </c>
       <c r="T15">
-        <v>0.06834388018644284</v>
+        <v>0.01052401168560484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H16">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I16">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J16">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N16">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q16">
-        <v>0.3902983649577778</v>
+        <v>0.03535665263333333</v>
       </c>
       <c r="R16">
-        <v>3.51268528462</v>
+        <v>0.3182098736999999</v>
       </c>
       <c r="S16">
-        <v>0.0001318339113572356</v>
+        <v>2.558622687022723E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001318339113572356</v>
+        <v>2.558622687022724E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H17">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I17">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J17">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N17">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O17">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P17">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q17">
-        <v>178.3264206690066</v>
+        <v>12.79128436063333</v>
       </c>
       <c r="R17">
-        <v>1604.93778602106</v>
+        <v>115.1215592457</v>
       </c>
       <c r="S17">
-        <v>0.06023460932938874</v>
+        <v>0.009256552281880956</v>
       </c>
       <c r="T17">
-        <v>0.06023460932938875</v>
+        <v>0.009256552281880957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H18">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I18">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J18">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N18">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q18">
-        <v>0.751413003688889</v>
+        <v>0.05432007144444444</v>
       </c>
       <c r="R18">
-        <v>6.7627170332</v>
+        <v>0.4888806429999999</v>
       </c>
       <c r="S18">
-        <v>0.0002538102237033753</v>
+        <v>3.930931148935171E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002538102237033753</v>
+        <v>3.930931148935172E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H19">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I19">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J19">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N19">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q19">
-        <v>0.5107344391499999</v>
+        <v>0.01558199413333333</v>
       </c>
       <c r="R19">
-        <v>4.59660995235</v>
+        <v>0.1402379472</v>
       </c>
       <c r="S19">
-        <v>0.0001725144782127706</v>
+        <v>1.127607981220901E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001725144782127706</v>
+        <v>1.127607981220901E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H20">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I20">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J20">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N20">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q20">
-        <v>55.61433565780933</v>
+        <v>6.158185587519334</v>
       </c>
       <c r="R20">
-        <v>500.529020920284</v>
+        <v>55.423670287674</v>
       </c>
       <c r="S20">
-        <v>0.01878525778117554</v>
+        <v>0.004456438090598129</v>
       </c>
       <c r="T20">
-        <v>0.01878525778117554</v>
+        <v>0.004456438090598129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H21">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I21">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J21">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>157.825459</v>
       </c>
       <c r="O21">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P21">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q21">
-        <v>666.4695043356203</v>
+        <v>14.51115661078233</v>
       </c>
       <c r="R21">
-        <v>5998.225539020583</v>
+        <v>130.600409497041</v>
       </c>
       <c r="S21">
-        <v>0.225118241441744</v>
+        <v>0.01050115657280395</v>
       </c>
       <c r="T21">
-        <v>0.2251182414417441</v>
+        <v>0.01050115657280395</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H22">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I22">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J22">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N22">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q22">
-        <v>1.285605694572667</v>
+        <v>0.035279868199</v>
       </c>
       <c r="R22">
-        <v>11.570451251154</v>
+        <v>0.3175188137909999</v>
       </c>
       <c r="S22">
-        <v>0.0004342483658546334</v>
+        <v>2.553066097779593E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004342483658546334</v>
+        <v>2.553066097779593E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H23">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I23">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J23">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N23">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O23">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P23">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q23">
-        <v>587.3902698250779</v>
+        <v>12.763505386639</v>
       </c>
       <c r="R23">
-        <v>5286.512428425702</v>
+        <v>114.871548479751</v>
       </c>
       <c r="S23">
-        <v>0.1984070744764694</v>
+        <v>0.00923644972471266</v>
       </c>
       <c r="T23">
-        <v>0.1984070744764694</v>
+        <v>0.00923644972471266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H24">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I24">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J24">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N24">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q24">
-        <v>2.475082970493334</v>
+        <v>0.05420210394333333</v>
       </c>
       <c r="R24">
-        <v>22.27574673444</v>
+        <v>0.48781893549</v>
       </c>
       <c r="S24">
-        <v>0.0008360267380805466</v>
+        <v>3.922394302197885E-05</v>
       </c>
       <c r="T24">
-        <v>0.0008360267380805466</v>
+        <v>3.922394302197884E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H25">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I25">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J25">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N25">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q25">
-        <v>1.682310668805</v>
+        <v>0.015548154544</v>
       </c>
       <c r="R25">
-        <v>15.140796019245</v>
+        <v>0.139933390896</v>
       </c>
       <c r="S25">
-        <v>0.000568246284123078</v>
+        <v>1.125159142472343E-05</v>
       </c>
       <c r="T25">
-        <v>0.000568246284123078</v>
+        <v>1.125159142472343E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4665426666666666</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H26">
-        <v>1.399628</v>
+        <v>1.52311</v>
       </c>
       <c r="I26">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J26">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N26">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O26">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P26">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q26">
-        <v>2.048111731699555</v>
+        <v>11.33487055598444</v>
       </c>
       <c r="R26">
-        <v>18.433005585296</v>
+        <v>102.01383500386</v>
       </c>
       <c r="S26">
-        <v>0.0006918055639710487</v>
+        <v>0.008202602565285173</v>
       </c>
       <c r="T26">
-        <v>0.0006918055639710487</v>
+        <v>0.008202602565285174</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4665426666666666</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H27">
-        <v>1.399628</v>
+        <v>1.52311</v>
       </c>
       <c r="I27">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J27">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>157.825459</v>
       </c>
       <c r="O27">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P27">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q27">
-        <v>24.54410350325022</v>
+        <v>26.70950387305444</v>
       </c>
       <c r="R27">
-        <v>220.896931529252</v>
+        <v>240.38553485749</v>
       </c>
       <c r="S27">
-        <v>0.008290439971328979</v>
+        <v>0.0193286234637183</v>
       </c>
       <c r="T27">
-        <v>0.008290439971328981</v>
+        <v>0.0193286234637183</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4665426666666666</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H28">
-        <v>1.399628</v>
+        <v>1.52311</v>
       </c>
       <c r="I28">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J28">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N28">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O28">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P28">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q28">
-        <v>0.04734506084177777</v>
+        <v>0.06493677944333331</v>
       </c>
       <c r="R28">
-        <v>0.4261055475759999</v>
+        <v>0.5844310149899999</v>
       </c>
       <c r="S28">
-        <v>1.599208481155969E-05</v>
+        <v>4.699220789619172E-05</v>
       </c>
       <c r="T28">
-        <v>1.599208481155969E-05</v>
+        <v>4.699220789619174E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4665426666666666</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H29">
-        <v>1.399628</v>
+        <v>1.52311</v>
       </c>
       <c r="I29">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J29">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N29">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O29">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P29">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q29">
-        <v>21.63184884769866</v>
+        <v>23.49274463104333</v>
       </c>
       <c r="R29">
-        <v>194.686639629288</v>
+        <v>211.43470167939</v>
       </c>
       <c r="S29">
-        <v>0.007306746580373537</v>
+        <v>0.0170007805933386</v>
       </c>
       <c r="T29">
-        <v>0.007306746580373538</v>
+        <v>0.0170007805933386</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4665426666666666</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H30">
-        <v>1.399628</v>
+        <v>1.52311</v>
       </c>
       <c r="I30">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J30">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N30">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O30">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P30">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q30">
-        <v>0.09114999592888889</v>
+        <v>0.09976539734444444</v>
       </c>
       <c r="R30">
-        <v>0.82034996336</v>
+        <v>0.8978885760999999</v>
       </c>
       <c r="S30">
-        <v>3.078839565418494E-05</v>
+        <v>7.219631667978595E-05</v>
       </c>
       <c r="T30">
-        <v>3.078839565418494E-05</v>
+        <v>7.219631667978596E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4665426666666666</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H31">
-        <v>1.399628</v>
+        <v>1.52311</v>
       </c>
       <c r="I31">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J31">
-        <v>0.01635669942853318</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N31">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O31">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P31">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q31">
-        <v>0.06195453341999999</v>
+        <v>0.02861822149333333</v>
       </c>
       <c r="R31">
-        <v>0.5575908007799999</v>
+        <v>0.25756399344</v>
       </c>
       <c r="S31">
-        <v>2.092683239386553E-05</v>
+        <v>2.070988776410667E-05</v>
       </c>
       <c r="T31">
-        <v>2.092683239386553E-05</v>
+        <v>2.070988776410667E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.664685666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H32">
-        <v>13.994057</v>
+        <v>10.338864</v>
       </c>
       <c r="I32">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J32">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N32">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O32">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P32">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q32">
-        <v>20.47786434379156</v>
+        <v>76.94105162196267</v>
       </c>
       <c r="R32">
-        <v>184.300779094124</v>
+        <v>692.469464597664</v>
       </c>
       <c r="S32">
-        <v>0.006916956859342626</v>
+        <v>0.05567923023848213</v>
       </c>
       <c r="T32">
-        <v>0.006916956859342626</v>
+        <v>0.05567923023848214</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.664685666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H33">
-        <v>13.994057</v>
+        <v>10.338864</v>
       </c>
       <c r="I33">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J33">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>157.825459</v>
       </c>
       <c r="O33">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P33">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q33">
-        <v>245.4020521441292</v>
+        <v>181.3039951487306</v>
       </c>
       <c r="R33">
-        <v>2208.618469297162</v>
+        <v>1631.735956338576</v>
       </c>
       <c r="S33">
-        <v>0.08289123218016223</v>
+        <v>0.1312026113009516</v>
       </c>
       <c r="T33">
-        <v>0.08289123218016224</v>
+        <v>0.1312026113009516</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.664685666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H34">
-        <v>13.994057</v>
+        <v>10.338864</v>
       </c>
       <c r="I34">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J34">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N34">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O34">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P34">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q34">
-        <v>0.4733754112437777</v>
+        <v>0.4407905740639999</v>
       </c>
       <c r="R34">
-        <v>4.260378701193999</v>
+        <v>3.967115166575999</v>
       </c>
       <c r="S34">
-        <v>0.0001598954482203847</v>
+        <v>0.0003189829011026468</v>
       </c>
       <c r="T34">
-        <v>0.0001598954482203847</v>
+        <v>0.0003189829011026469</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.664685666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H35">
-        <v>13.994057</v>
+        <v>10.338864</v>
       </c>
       <c r="I35">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J35">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N35">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O35">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P35">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q35">
-        <v>216.2841310620246</v>
+        <v>159.468647521904</v>
       </c>
       <c r="R35">
-        <v>1946.557179558221</v>
+        <v>1435.217827697136</v>
       </c>
       <c r="S35">
-        <v>0.07305586065033162</v>
+        <v>0.1154012241061822</v>
       </c>
       <c r="T35">
-        <v>0.07305586065033164</v>
+        <v>0.1154012241061822</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.664685666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H36">
-        <v>13.994057</v>
+        <v>10.338864</v>
       </c>
       <c r="I36">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J36">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N36">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O36">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P36">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q36">
-        <v>0.911355187648889</v>
+        <v>0.6772070796266666</v>
       </c>
       <c r="R36">
-        <v>8.202196688840001</v>
+        <v>6.094863716639999</v>
       </c>
       <c r="S36">
-        <v>0.0003078350559743134</v>
+        <v>0.0004900682809864281</v>
       </c>
       <c r="T36">
-        <v>0.0003078350559743134</v>
+        <v>0.0004900682809864282</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.664685666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H37">
-        <v>13.994057</v>
+        <v>10.338864</v>
       </c>
       <c r="I37">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J37">
-        <v>0.1635410152803178</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N37">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O37">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P37">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q37">
-        <v>0.619446933105</v>
+        <v>0.194260361984</v>
       </c>
       <c r="R37">
-        <v>5.575022397944999</v>
+        <v>1.748343257856</v>
       </c>
       <c r="S37">
-        <v>0.0002092350862866423</v>
+        <v>0.0001405786273140896</v>
       </c>
       <c r="T37">
-        <v>0.0002092350862866423</v>
+        <v>0.0001405786273140896</v>
       </c>
     </row>
   </sheetData>
